--- a/outputs-r202/g__UBA2912.xlsx
+++ b/outputs-r202/g__UBA2912.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>s__UBA2912 sp900314775</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>s__UBA2912 sp900314775</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>s__UBA2912 sp900314845</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>s__UBA2912 sp900314845</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>s__UBA2912 sp900317095</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>s__UBA2912 sp900317095</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>s__UBA2912 sp900314845</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>s__UBA2912 sp900314845</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -621,6 +646,11 @@
         <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>s__UBA2912 sp900317095</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>s__UBA2912 sp900317095</t>
         </is>
